--- a/internal/excel/Book1.xlsx
+++ b/internal/excel/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\right\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\right\dev\excel-template-mapper\internal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B468C0D-0695-4BA2-ACBE-AD54E3E5DF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B08D957-A86D-4F1C-A5DF-AA80B5CF4359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="1605" windowWidth="20880" windowHeight="23445" xr2:uid="{FDF70F5C-09E2-44A8-BC50-9E466331B047}"/>
+    <workbookView xWindow="30975" yWindow="1950" windowWidth="20880" windowHeight="23445" xr2:uid="{FDF70F5C-09E2-44A8-BC50-9E466331B047}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1"/>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>ううう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ccccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eeeee</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA2F540-7B08-4537-AF23-4359F7637B02}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -466,6 +478,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/internal/excel/Book1.xlsx
+++ b/internal/excel/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\right\dev\excel-template-mapper\internal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B08D957-A86D-4F1C-A5DF-AA80B5CF4359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC44309E-2EF9-4421-820F-83A485D198D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30975" yWindow="1950" windowWidth="20880" windowHeight="23445" xr2:uid="{FDF70F5C-09E2-44A8-BC50-9E466331B047}"/>
+    <workbookView xWindow="31665" yWindow="2640" windowWidth="20880" windowHeight="23445" xr2:uid="{FDF70F5C-09E2-44A8-BC50-9E466331B047}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/internal/excel/Book1.xlsx
+++ b/internal/excel/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\right\dev\excel-template-mapper\internal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC44309E-2EF9-4421-820F-83A485D198D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBA5A17-12EA-4EAC-A276-80691579F039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31665" yWindow="2640" windowWidth="20880" windowHeight="23445" xr2:uid="{FDF70F5C-09E2-44A8-BC50-9E466331B047}"/>
+    <workbookView xWindow="17520" yWindow="7695" windowWidth="43200" windowHeight="23445" xr2:uid="{FDF70F5C-09E2-44A8-BC50-9E466331B047}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ああああ</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>いいい</t>
     <phoneticPr fontId="1"/>
@@ -58,15 +46,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ccccc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dddd</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>eeeee</t>
+    <t>カスタマID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出日</t>
+    <rPh sb="0" eb="3">
+      <t>テイシュツビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確定予定日</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精査結果</t>
+    <rPh sb="0" eb="2">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えええ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaajj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cccc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -451,42 +482,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA2F540-7B08-4537-AF23-4359F7637B02}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
